--- a/Csv/Model/Model.xlsx
+++ b/Csv/Model/Model.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -30,38 +30,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卓洛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>路飞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>山鸡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型级别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GroupType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -81,6 +49,71 @@
   </si>
   <si>
     <t>NPC</t>
+  </si>
+  <si>
+    <t>模型路径</t>
+  </si>
+  <si>
+    <t>AvatarPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelScale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avatar路径</t>
+  </si>
+  <si>
+    <t>模型缩放</t>
+  </si>
+  <si>
+    <t>qinyun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiwang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianying</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_xinmo_10001</t>
+  </si>
+  <si>
+    <t>小莫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss_xinmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 七号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qihao_10001</t>
+  </si>
+  <si>
+    <t>qihao</t>
   </si>
 </sst>
 </file>
@@ -460,82 +493,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -546,56 +617,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="4" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -607,56 +705,84 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Csv/Model/Model.xlsx
+++ b/Csv/Model/Model.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="#玩家" sheetId="2" r:id="rId1"/>
-    <sheet name="#怪物" sheetId="3" r:id="rId2"/>
-    <sheet name="#NPC" sheetId="4" r:id="rId3"/>
+    <sheet name="#基类" sheetId="5" r:id="rId1"/>
+    <sheet name="#玩家" sheetId="2" r:id="rId2"/>
+    <sheet name="#怪物" sheetId="3" r:id="rId3"/>
+    <sheet name="#NPC" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,18 +73,10 @@
     <t>模型缩放</t>
   </si>
   <si>
-    <t>qinyun</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>guiwang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tianying</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>青云</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -106,14 +99,44 @@
     <t>boss_xinmo</t>
   </si>
   <si>
-    <t xml:space="preserve"> 七号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qihao_10001</t>
-  </si>
-  <si>
-    <t>qihao</t>
+    <t>玩家模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础类型</t>
+  </si>
+  <si>
+    <t>怪物模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianyin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qingyun</t>
+  </si>
+  <si>
+    <t>qingyun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_qihao</t>
+  </si>
+  <si>
+    <t>npc_qihao_10001</t>
+  </si>
+  <si>
+    <t>npc_qihao_10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -496,8 +519,132 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,16 +707,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -577,16 +724,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -594,16 +741,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -615,12 +762,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C4" sqref="C4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -681,16 +828,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -703,12 +850,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -770,16 +917,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>1</v>
